--- a/app1/uploads/excel.xlsx
+++ b/app1/uploads/excel.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5.2898876404"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.5898876404"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.4898876404"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.6898876404"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.7898876404"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7898876404"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.5898876404"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.5898876404"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="6.3898876404"/>
   </cols>
   <sheetData>
@@ -119,17 +119,17 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Allard</t>
+          <t>Borg</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Easterby</t>
+          <t>Hague</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>aeasterby0@chronoengine.com</t>
+          <t>bhague0@360.cn</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -139,7 +139,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -149,27 +149,27 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Tonya</t>
+          <t>Chuck</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Pasby</t>
+          <t>Drover</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>tpasby1@forbes.com</t>
+          <t>cdrover1@goodreads.com</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -179,27 +179,27 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Rachael</t>
+          <t>Wade</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Pulster</t>
+          <t>Chipchase</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>rpulster2@geocities.com</t>
+          <t>wchipchase2@discovery.com</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -209,27 +209,27 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Tucker</t>
+          <t>Arlen</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Hew</t>
+          <t>Praill</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>thew3@squarespace.com</t>
+          <t>apraill3@apache.org</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -239,17 +239,17 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Bartlett</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Yerill</t>
+          <t>Hanaford</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>byerill4@mozilla.org</t>
+          <t>hhanaford4@youtube.com</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -259,7 +259,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -269,27 +269,27 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Birgitta</t>
+          <t>Lawton</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Boutellier</t>
+          <t>Laskey</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>bboutellier5@dailymail.co.uk</t>
+          <t>llaskey5@nps.gov</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -299,17 +299,17 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Shell</t>
+          <t>Hattie</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Ethridge</t>
+          <t>Chessil</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>sethridge6@reference.com</t>
+          <t>hchessil6@pinterest.com</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -319,7 +319,7 @@
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -329,27 +329,27 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Katheryn</t>
+          <t>Paddy</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>Runciman</t>
+          <t>Petters</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>krunciman7@ehow.com</t>
+          <t>ppetters7@spotify.com</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -359,27 +359,27 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Lefty</t>
+          <t>Karlotte</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Westwood</t>
+          <t>Thomton</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>lwestwood8@google.pl</t>
+          <t>kthomton8@miibeian.gov.cn</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
     </row>
@@ -389,22 +389,22 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Betta</t>
+          <t>Nial</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Haymes</t>
+          <t>Thurner</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>bhaymes9@paginegialle.it</t>
+          <t>nthurner9@theguardian.com</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Genderfluid</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
